--- a/Abdulla-PROJECT1/Abdulla-PROJECT1/lab1.xlsx
+++ b/Abdulla-PROJECT1/Abdulla-PROJECT1/lab1.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayalbrai\Desktop\LAB1\LAB1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary\Documents\GitHub\CSE320-Project-1\Abdulla-PROJECT1\Abdulla-PROJECT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="4080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>ns</t>
   </si>
@@ -36,6 +38,12 @@
   </si>
   <si>
     <t>Remember to change the first coloumn title "n-bit (CBA)" to CSA .. Etc everytime</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>N-bit CSA</t>
   </si>
 </sst>
 </file>
@@ -59,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -67,12 +75,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,11 +325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293028000"/>
-        <c:axId val="238754312"/>
+        <c:axId val="789673504"/>
+        <c:axId val="789680032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293028000"/>
+        <c:axId val="789673504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238754312"/>
+        <c:crossAx val="789680032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -314,7 +436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238754312"/>
+        <c:axId val="789680032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,13 +543,813 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293028000"/>
+        <c:crossAx val="789673504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ns vs n-bits</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1099647680"/>
+        <c:axId val="1099647136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1099647680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n-bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099647136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1099647136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>delay (na)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099647680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ns vs n-bits</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1099640608"/>
+        <c:axId val="1102963728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1099640608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n-bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102963728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1102963728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>delay (na)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099640608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -510,6 +1432,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1007,6 +2009,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1045,6 +3079,78 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1326,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,4 +3512,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <f>4*B4</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C9" si="0">4*B5</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D8" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D9" s="4">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>135</v>
+      </c>
+      <c r="D8" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>((15+1)*(15+2)/2)+1</f>
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>